--- a/data/us/20-07-26  world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-07-26  world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A1AD3110-1691-4AC7-8C97-AE3ACA3F5BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{751220ED-AF93-4057-A3BD-E22A4A45EF11}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{A1AD3110-1691-4AC7-8C97-AE3ACA3F5BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41F17946-D09D-402E-A1B2-2CFA021D39A2}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="-19425" windowWidth="24330" windowHeight="17790" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="1340" yWindow="330" windowWidth="24330" windowHeight="17790" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -737,12 +737,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -766,6 +760,12 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1147,22 +1147,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
       <c r="O1" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="20" t="s">
@@ -2939,27 +2939,27 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="53">
         <v>352</v>
       </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55">
+      <c r="C59" s="53"/>
+      <c r="D59" s="53">
         <v>7</v>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55">
+      <c r="E59" s="53"/>
+      <c r="F59" s="53">
         <v>109</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="56">
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54">
         <v>8273</v>
       </c>
-      <c r="J59" s="55"/>
-      <c r="K59" s="57"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="55"/>
       <c r="L59" s="38"/>
     </row>
   </sheetData>
@@ -3033,7 +3033,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5441,26 +5441,26 @@
       </c>
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="52">
+      <c r="B54" s="50">
         <v>352</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52">
+      <c r="C54" s="50"/>
+      <c r="D54" s="50">
         <v>7</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52">
+      <c r="E54" s="50"/>
+      <c r="F54" s="50">
         <v>109</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53">
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="51">
         <v>8273</v>
       </c>
-      <c r="J54" s="52"/>
+      <c r="J54" s="50"/>
       <c r="K54" s="34"/>
       <c r="L54" s="41">
         <f>IFERROR(B54/I54,0)</f>
@@ -6170,10 +6170,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="59">
+      <c r="B49" s="57">
         <v>7</v>
       </c>
     </row>
